--- a/OnBoard/output/trust/bio/Bio_Trust_53.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_53.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>379</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +529,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>263</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,7 +571,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F4">
@@ -571,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +598,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F5">
@@ -618,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +645,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -665,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -682,7 +692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -712,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +739,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +786,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -806,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -823,7 +833,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -843,7 +853,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F10">
@@ -853,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -870,7 +880,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,7 +900,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F11">
@@ -900,14 +910,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I11">
-        <v>53</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L11">
@@ -917,7 +927,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -937,7 +947,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F12">
@@ -947,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -964,7 +974,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,7 +994,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F13">
@@ -994,14 +1004,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="I13">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L13">
@@ -1011,7 +1021,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,7 +1041,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F14">
@@ -1041,14 +1051,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I14">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L14">
@@ -1058,7 +1068,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,7 +1088,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F15">
@@ -1088,14 +1098,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="I15">
-        <v>73</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L15">
@@ -1105,7 +1115,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1125,7 +1135,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F16">
@@ -1135,14 +1145,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I16">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L16">
@@ -1152,7 +1162,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1172,7 +1182,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F17">
@@ -1182,14 +1192,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L17">
@@ -1199,7 +1209,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1219,7 +1229,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F18">
@@ -1229,14 +1239,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="I18">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L18">
@@ -1246,7 +1256,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1266,7 +1276,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F19">
@@ -1276,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1293,7 +1303,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1313,7 +1323,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F20">
@@ -1323,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1340,7 +1350,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1360,7 +1370,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F21">
@@ -1370,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1387,7 +1397,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1407,7 +1417,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F22">
@@ -1417,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -1434,7 +1444,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1454,7 +1464,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F23">
@@ -1464,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1481,7 +1491,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1501,7 +1511,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F24">
@@ -1511,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1528,7 +1538,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1548,7 +1558,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F25">
@@ -1558,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -1575,7 +1585,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1595,7 +1605,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F26">
@@ -1605,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -1622,7 +1632,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1642,7 +1652,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F27">
@@ -1652,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -1669,7 +1679,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1689,7 +1699,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RAJACLA</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="F28">
@@ -1699,19 +1709,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>570</v>
+        <v>147</v>
       </c>
       <c r="I28">
-        <v>1367</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L28">
@@ -1721,7 +1726,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1741,7 +1746,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="F29">
@@ -1751,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -1768,7 +1773,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1788,7 +1793,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F30">
@@ -1798,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -1815,7 +1820,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1830,12 +1835,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F31">
@@ -1845,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -1862,7 +1867,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1877,12 +1882,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F32">
@@ -1892,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -1909,7 +1914,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1924,12 +1929,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MULLSUR</t>
         </is>
       </c>
       <c r="F33">
@@ -1939,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -1956,7 +1961,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1971,12 +1976,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MICUVAR</t>
         </is>
       </c>
       <c r="F34">
@@ -1986,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2003,7 +2008,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2018,12 +2023,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MICUVAR</t>
         </is>
       </c>
       <c r="F35">
@@ -2033,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2050,7 +2055,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2065,12 +2070,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F36">
@@ -2080,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2097,7 +2102,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2112,12 +2117,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F37">
@@ -2127,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2144,7 +2149,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2159,12 +2164,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F38">
@@ -2174,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -2191,7 +2196,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2206,7 +2211,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2221,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -2238,7 +2243,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2253,7 +2258,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2268,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -2285,7 +2290,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2300,12 +2305,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F41">
@@ -2315,14 +2320,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>340</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="L41">
@@ -2332,7 +2337,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2347,12 +2352,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F42">
@@ -2362,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="I42">
         <v>-1</v>
@@ -2379,7 +2384,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2394,12 +2399,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MICUVAR</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F43">
@@ -2409,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="I43">
         <v>-1</v>
@@ -2426,7 +2431,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2441,12 +2446,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SPICMAE</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F44">
@@ -2456,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2473,7 +2478,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2488,12 +2493,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F45">
@@ -2503,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2520,7 +2525,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2535,12 +2540,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F46">
@@ -2550,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2567,7 +2572,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2582,12 +2587,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F47">
@@ -2597,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2614,7 +2619,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2629,12 +2634,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F48">
@@ -2644,14 +2649,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="I48">
-        <v>93</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2661,7 +2666,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2676,12 +2681,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F49">
@@ -2691,14 +2696,14 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="I49">
-        <v>68</v>
+        <v>-1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L49">
@@ -2708,7 +2713,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2723,12 +2728,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F50">
@@ -2738,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="I50">
         <v>-1</v>
@@ -2755,7 +2760,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2770,12 +2775,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="F51">
@@ -2785,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="I51">
         <v>-1</v>
@@ -2802,7 +2807,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2817,12 +2822,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F52">
@@ -2832,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I52">
         <v>-1</v>
@@ -2849,7 +2854,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2864,12 +2869,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F53">
@@ -2879,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I53">
         <v>-1</v>
@@ -2896,7 +2901,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2911,12 +2916,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F54">
@@ -2926,14 +2931,14 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="I54">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L54">
@@ -2943,7 +2948,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2958,12 +2963,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F55">
@@ -2973,14 +2978,14 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I55">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L55">
@@ -2990,7 +2995,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3005,12 +3010,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F56">
@@ -3020,14 +3025,14 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I56">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L56">
@@ -3037,7 +3042,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3052,7 +3057,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3067,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I57">
         <v>-1</v>
@@ -3084,7 +3089,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3099,12 +3104,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F58">
@@ -3114,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="I58">
         <v>-1</v>
@@ -3131,7 +3136,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3146,12 +3151,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F59">
@@ -3161,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="I59">
         <v>-1</v>
@@ -3178,7 +3183,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3193,12 +3198,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F60">
@@ -3208,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="I60">
         <v>-1</v>
@@ -3225,7 +3230,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3240,12 +3245,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F61">
@@ -3255,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I61">
         <v>-1</v>
@@ -3272,7 +3277,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3287,12 +3292,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F62">
@@ -3302,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="I62">
         <v>-1</v>
@@ -3319,7 +3324,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3334,12 +3339,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F63">
@@ -3349,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="I63">
         <v>-1</v>
@@ -3366,7 +3371,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3381,12 +3386,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F64">
@@ -3396,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="I64">
         <v>-1</v>
@@ -3413,7 +3418,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3428,12 +3433,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F65">
@@ -3443,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="I65">
         <v>-1</v>
@@ -3460,7 +3465,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3475,12 +3480,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F66">
@@ -3490,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I66">
         <v>-1</v>
@@ -3507,7 +3512,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3522,12 +3527,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F67">
@@ -3537,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I67">
         <v>-1</v>
@@ -3554,7 +3559,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3569,12 +3574,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F68">
@@ -3584,14 +3589,14 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I68">
-        <v>76</v>
+        <v>-1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L68">
@@ -3601,7 +3606,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3621,7 +3626,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F69">
@@ -3631,34 +3636,24 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="I69">
-        <v>585</v>
+        <v>-1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L69">
         <v>0</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>SR472</t>
-        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3678,7 +3673,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F70">
@@ -3688,34 +3683,24 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="I70">
-        <v>193</v>
+        <v>-1</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L70">
         <v>0</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>SS7663</t>
-        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3735,7 +3720,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F71">
@@ -3745,34 +3730,24 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="I71">
-        <v>202</v>
+        <v>-1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L71">
         <v>0</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>SS7664</t>
-        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3787,12 +3762,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F72">
@@ -3802,34 +3777,34 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="I72">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>SS7665</t>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3844,12 +3819,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F73">
@@ -3859,34 +3834,29 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>292</v>
+        <v>89</v>
       </c>
       <c r="I73">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L73">
         <v>0</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>SS7666</t>
-        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3906,38 +3876,3025 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>RAJACLA</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>572</v>
+      </c>
+      <c r="I74">
+        <v>1031</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
+        </is>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MULLSUR</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>180</v>
+      </c>
+      <c r="I75">
+        <v>-1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TRIGLUC</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>217</v>
+      </c>
+      <c r="I76">
+        <v>-1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MERLMER</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>195</v>
+      </c>
+      <c r="I77">
+        <v>48</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
+        </is>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SCYOCAN</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>350</v>
+      </c>
+      <c r="I78">
+        <v>136</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
+        </is>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>BLENOCE</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>110</v>
+      </c>
+      <c r="I79">
+        <v>-1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>BLENOCE</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>120</v>
+      </c>
+      <c r="I80">
+        <v>-1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>BLENOCE</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>113</v>
+      </c>
+      <c r="I81">
+        <v>-1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SPICMAE</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>110</v>
+      </c>
+      <c r="I82">
+        <v>-1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SCORPOR</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>150</v>
+      </c>
+      <c r="I83">
+        <v>-1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SCORNOT</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>108</v>
+      </c>
+      <c r="I84">
+        <v>-1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SCORNOT</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>147</v>
+      </c>
+      <c r="I85">
+        <v>-1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SCORNOT</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>104</v>
+      </c>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SCORNOT</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>142</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SCORNOT</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>116</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>SCORNOT</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>112</v>
+      </c>
+      <c r="I89">
+        <v>-1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SERAHEP</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>65</v>
+      </c>
+      <c r="I90">
+        <v>-1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SERAHEP</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>75</v>
+      </c>
+      <c r="I91">
+        <v>-1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SERAHEP</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>84</v>
+      </c>
+      <c r="I92">
+        <v>-1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SERAHEP</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>-1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>110</v>
+      </c>
+      <c r="I94">
+        <v>-1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>112</v>
+      </c>
+      <c r="I96">
+        <v>-1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>120</v>
+      </c>
+      <c r="I97">
+        <v>-1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>127</v>
+      </c>
+      <c r="I98">
+        <v>-1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>110</v>
+      </c>
+      <c r="I99">
+        <v>-1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>130</v>
+      </c>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>104</v>
+      </c>
+      <c r="I101">
+        <v>-1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>115</v>
+      </c>
+      <c r="I102">
+        <v>-1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>135</v>
+      </c>
+      <c r="I103">
+        <v>-1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>124</v>
+      </c>
+      <c r="I104">
+        <v>-1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>TRISCAP</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>127</v>
+      </c>
+      <c r="I105">
+        <v>-1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>CITHMAC</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>160</v>
+      </c>
+      <c r="I106">
+        <v>-1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>ARNOTHO</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>82</v>
+      </c>
+      <c r="I107">
+        <v>-1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>LEPTCAV</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>97</v>
+      </c>
+      <c r="I108">
+        <v>-1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>LEPTCAV</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>96</v>
+      </c>
+      <c r="I109">
+        <v>-1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>LEPTCAV</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>85</v>
+      </c>
+      <c r="I110">
+        <v>-1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>LEPTCAV</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>102</v>
+      </c>
+      <c r="I111">
+        <v>-1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>LEPTCAV</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>103</v>
+      </c>
+      <c r="I112">
+        <v>-1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>LEPTCAV</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>98</v>
+      </c>
+      <c r="I113">
+        <v>-1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>TRIPLAS</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>160</v>
+      </c>
+      <c r="I114">
+        <v>-1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>TRIPLAS</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>142</v>
+      </c>
+      <c r="I115">
+        <v>-1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>TRIPLAS</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>150</v>
+      </c>
+      <c r="I116">
+        <v>-1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>TRIPLAS</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>118</v>
+      </c>
+      <c r="I117">
+        <v>-1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>95</v>
+      </c>
+      <c r="I118">
+        <v>132</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
+        </is>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>130</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>110</v>
+      </c>
+      <c r="I120">
+        <v>150</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>SOLEVUL</t>
         </is>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>225</v>
-      </c>
-      <c r="I74">
-        <v>111</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>287</v>
+      </c>
+      <c r="I121">
+        <v>193</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>SS8143</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>259</v>
+      </c>
+      <c r="I122">
+        <v>139</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>SS8144</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>304</v>
+      </c>
+      <c r="I123">
+        <v>264</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>SS8145</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>246</v>
+      </c>
+      <c r="I124">
+        <v>102</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>HOLRM-3</t>
         </is>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>SS7667</t>
-        </is>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>SS8146</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>272</v>
+      </c>
+      <c r="I125">
+        <v>158</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>SS8147</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>271</v>
+      </c>
+      <c r="I126">
+        <v>183</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
+        </is>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>SS8148</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>293</v>
+      </c>
+      <c r="I127">
+        <v>184</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>SS8149</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>288</v>
+      </c>
+      <c r="I128">
+        <v>200</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>HOLRA-5</t>
+        </is>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>SS8150</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>261</v>
+      </c>
+      <c r="I129">
+        <v>133</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>SS8151</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>278</v>
+      </c>
+      <c r="I130">
+        <v>207</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>SS8152</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>41</v>
+      </c>
+      <c r="I131">
+        <v>12</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>26</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>24</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>19</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>16</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L135">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
